--- a/TimeHistoryResponseAnalysis/# TestModel/output/result - Clough, NigamJennings.xlsx
+++ b/TimeHistoryResponseAnalysis/# TestModel/output/result - Clough, NigamJennings.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aki32\Dropbox\Codes\# Projects\# Utilities\Structural Engineering\TimeHistoryResponseAnalysis\# TestModel\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5117BA60-7787-4F71-ADCE-00C3C6EF23BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90592B71-164A-43A8-80E8-76110F84B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="-120" windowWidth="27450" windowHeight="16440"/>
+    <workbookView xWindow="1470" yWindow="-120" windowWidth="27450" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="result - NigamJennings" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -19891,11 +19891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/TimeHistoryResponseAnalysis/# TestModel/output/result - Clough, NigamJennings.xlsx
+++ b/TimeHistoryResponseAnalysis/# TestModel/output/result - Clough, NigamJennings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aki32\Dropbox\Codes\# Projects\# Utilities\Structural Engineering\TimeHistoryResponseAnalysis\# TestModel\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90592B71-164A-43A8-80E8-76110F84B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3108EDBC-F1B5-441D-8141-34FD2C4A6B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1470" yWindow="-120" windowWidth="27450" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19558,16 +19558,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>471486</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>128586</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
